--- a/KUDIR/KUDIR/ReportTemplates/Кредитор.xlsx
+++ b/KUDIR/KUDIR/ReportTemplates/Кредитор.xlsx
@@ -63,6 +63,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0_р_."/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -146,9 +149,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -429,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,9 +532,1431 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="8"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="8"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="8"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="8"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="8"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="8"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="8"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="8"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="8"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="8"/>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="8"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="8"/>
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="8"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="8"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="8"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="8"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="8"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50" s="8"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51" s="8"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="8"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="8"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="8"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D55" s="8"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D56" s="8"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D57" s="8"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D58" s="8"/>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="8"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D60" s="8"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D61" s="8"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D62" s="8"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D63" s="8"/>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D64" s="8"/>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D65" s="8"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D66" s="8"/>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D67" s="8"/>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="8"/>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D69" s="8"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D70" s="8"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D71" s="8"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D72" s="8"/>
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D73" s="8"/>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D74" s="8"/>
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D75" s="8"/>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D76" s="8"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D77" s="8"/>
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D78" s="8"/>
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D79" s="8"/>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="8"/>
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="8"/>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D82" s="8"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D83" s="8"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D84" s="8"/>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D85" s="8"/>
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D86" s="8"/>
+      <c r="F86" s="8"/>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D87" s="8"/>
+      <c r="F87" s="8"/>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D88" s="8"/>
+      <c r="F88" s="8"/>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D89" s="8"/>
+      <c r="F89" s="8"/>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D90" s="8"/>
+      <c r="F90" s="8"/>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D91" s="8"/>
+      <c r="F91" s="8"/>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D92" s="8"/>
+      <c r="F92" s="8"/>
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D93" s="8"/>
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D94" s="8"/>
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D95" s="8"/>
+      <c r="F95" s="8"/>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D96" s="8"/>
+      <c r="F96" s="8"/>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D97" s="8"/>
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D98" s="8"/>
+      <c r="F98" s="8"/>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D99" s="8"/>
+      <c r="F99" s="8"/>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D100" s="8"/>
+      <c r="F100" s="8"/>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D101" s="8"/>
+      <c r="F101" s="8"/>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D102" s="8"/>
+      <c r="F102" s="8"/>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D103" s="8"/>
+      <c r="F103" s="8"/>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D104" s="8"/>
+      <c r="F104" s="8"/>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D105" s="8"/>
+      <c r="F105" s="8"/>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D106" s="8"/>
+      <c r="F106" s="8"/>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D107" s="8"/>
+      <c r="F107" s="8"/>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D108" s="8"/>
+      <c r="F108" s="8"/>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D109" s="8"/>
+      <c r="F109" s="8"/>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D110" s="8"/>
+      <c r="F110" s="8"/>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D111" s="8"/>
+      <c r="F111" s="8"/>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D112" s="8"/>
+      <c r="F112" s="8"/>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D113" s="8"/>
+      <c r="F113" s="8"/>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D114" s="8"/>
+      <c r="F114" s="8"/>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D115" s="8"/>
+      <c r="F115" s="8"/>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D116" s="8"/>
+      <c r="F116" s="8"/>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D117" s="8"/>
+      <c r="F117" s="8"/>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D118" s="8"/>
+      <c r="F118" s="8"/>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D119" s="8"/>
+      <c r="F119" s="8"/>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D120" s="8"/>
+      <c r="F120" s="8"/>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D121" s="8"/>
+      <c r="F121" s="8"/>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D122" s="8"/>
+      <c r="F122" s="8"/>
+    </row>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D123" s="8"/>
+      <c r="F123" s="8"/>
+    </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D124" s="8"/>
+      <c r="F124" s="8"/>
+    </row>
+    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D125" s="8"/>
+      <c r="F125" s="8"/>
+    </row>
+    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D126" s="8"/>
+      <c r="F126" s="8"/>
+    </row>
+    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D127" s="8"/>
+      <c r="F127" s="8"/>
+    </row>
+    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D128" s="8"/>
+      <c r="F128" s="8"/>
+    </row>
+    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D129" s="8"/>
+      <c r="F129" s="8"/>
+    </row>
+    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D130" s="8"/>
+      <c r="F130" s="8"/>
+    </row>
+    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D131" s="8"/>
+      <c r="F131" s="8"/>
+    </row>
+    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D132" s="8"/>
+      <c r="F132" s="8"/>
+    </row>
+    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D133" s="8"/>
+      <c r="F133" s="8"/>
+    </row>
+    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D134" s="8"/>
+      <c r="F134" s="8"/>
+    </row>
+    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D135" s="8"/>
+      <c r="F135" s="8"/>
+    </row>
+    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D136" s="8"/>
+      <c r="F136" s="8"/>
+    </row>
+    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D137" s="8"/>
+      <c r="F137" s="8"/>
+    </row>
+    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D138" s="8"/>
+      <c r="F138" s="8"/>
+    </row>
+    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D139" s="8"/>
+      <c r="F139" s="8"/>
+    </row>
+    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D140" s="8"/>
+      <c r="F140" s="8"/>
+    </row>
+    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D141" s="8"/>
+      <c r="F141" s="8"/>
+    </row>
+    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D142" s="8"/>
+      <c r="F142" s="8"/>
+    </row>
+    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D143" s="8"/>
+      <c r="F143" s="8"/>
+    </row>
+    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D144" s="8"/>
+      <c r="F144" s="8"/>
+    </row>
+    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D145" s="8"/>
+      <c r="F145" s="8"/>
+    </row>
+    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D146" s="8"/>
+      <c r="F146" s="8"/>
+    </row>
+    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D147" s="8"/>
+      <c r="F147" s="8"/>
+    </row>
+    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D148" s="8"/>
+      <c r="F148" s="8"/>
+    </row>
+    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D149" s="8"/>
+      <c r="F149" s="8"/>
+    </row>
+    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D150" s="8"/>
+      <c r="F150" s="8"/>
+    </row>
+    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D151" s="8"/>
+      <c r="F151" s="8"/>
+    </row>
+    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D152" s="8"/>
+      <c r="F152" s="8"/>
+    </row>
+    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D153" s="8"/>
+      <c r="F153" s="8"/>
+    </row>
+    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D154" s="8"/>
+      <c r="F154" s="8"/>
+    </row>
+    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D155" s="8"/>
+      <c r="F155" s="8"/>
+    </row>
+    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D156" s="8"/>
+      <c r="F156" s="8"/>
+    </row>
+    <row r="157" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D157" s="8"/>
+      <c r="F157" s="8"/>
+    </row>
+    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D158" s="8"/>
+      <c r="F158" s="8"/>
+    </row>
+    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D159" s="8"/>
+      <c r="F159" s="8"/>
+    </row>
+    <row r="160" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D160" s="8"/>
+      <c r="F160" s="8"/>
+    </row>
+    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D161" s="8"/>
+      <c r="F161" s="8"/>
+    </row>
+    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D162" s="8"/>
+      <c r="F162" s="8"/>
+    </row>
+    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D163" s="8"/>
+      <c r="F163" s="8"/>
+    </row>
+    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D164" s="8"/>
+      <c r="F164" s="8"/>
+    </row>
+    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D165" s="8"/>
+      <c r="F165" s="8"/>
+    </row>
+    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D166" s="8"/>
+      <c r="F166" s="8"/>
+    </row>
+    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D167" s="8"/>
+      <c r="F167" s="8"/>
+    </row>
+    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D168" s="8"/>
+      <c r="F168" s="8"/>
+    </row>
+    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D169" s="8"/>
+      <c r="F169" s="8"/>
+    </row>
+    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D170" s="8"/>
+      <c r="F170" s="8"/>
+    </row>
+    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D171" s="8"/>
+      <c r="F171" s="8"/>
+    </row>
+    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D172" s="8"/>
+      <c r="F172" s="8"/>
+    </row>
+    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D173" s="8"/>
+      <c r="F173" s="8"/>
+    </row>
+    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D174" s="8"/>
+      <c r="F174" s="8"/>
+    </row>
+    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D175" s="8"/>
+      <c r="F175" s="8"/>
+    </row>
+    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D176" s="8"/>
+      <c r="F176" s="8"/>
+    </row>
+    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D177" s="8"/>
+      <c r="F177" s="8"/>
+    </row>
+    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D178" s="8"/>
+      <c r="F178" s="8"/>
+    </row>
+    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D179" s="8"/>
+      <c r="F179" s="8"/>
+    </row>
+    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D180" s="8"/>
+      <c r="F180" s="8"/>
+    </row>
+    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D181" s="8"/>
+      <c r="F181" s="8"/>
+    </row>
+    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D182" s="8"/>
+      <c r="F182" s="8"/>
+    </row>
+    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D183" s="8"/>
+      <c r="F183" s="8"/>
+    </row>
+    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D184" s="8"/>
+      <c r="F184" s="8"/>
+    </row>
+    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D185" s="8"/>
+      <c r="F185" s="8"/>
+    </row>
+    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D186" s="8"/>
+      <c r="F186" s="8"/>
+    </row>
+    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D187" s="8"/>
+      <c r="F187" s="8"/>
+    </row>
+    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D188" s="8"/>
+      <c r="F188" s="8"/>
+    </row>
+    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D189" s="8"/>
+      <c r="F189" s="8"/>
+    </row>
+    <row r="190" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D190" s="8"/>
+      <c r="F190" s="8"/>
+    </row>
+    <row r="191" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D191" s="8"/>
+      <c r="F191" s="8"/>
+    </row>
+    <row r="192" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D192" s="8"/>
+      <c r="F192" s="8"/>
+    </row>
+    <row r="193" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D193" s="8"/>
+      <c r="F193" s="8"/>
+    </row>
+    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D194" s="8"/>
+      <c r="F194" s="8"/>
+    </row>
+    <row r="195" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D195" s="8"/>
+      <c r="F195" s="8"/>
+    </row>
+    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D196" s="8"/>
+      <c r="F196" s="8"/>
+    </row>
+    <row r="197" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D197" s="8"/>
+      <c r="F197" s="8"/>
+    </row>
+    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D198" s="8"/>
+      <c r="F198" s="8"/>
+    </row>
+    <row r="199" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D199" s="8"/>
+      <c r="F199" s="8"/>
+    </row>
+    <row r="200" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D200" s="8"/>
+      <c r="F200" s="8"/>
+    </row>
+    <row r="201" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D201" s="8"/>
+      <c r="F201" s="8"/>
+    </row>
+    <row r="202" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D202" s="8"/>
+      <c r="F202" s="8"/>
+    </row>
+    <row r="203" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D203" s="8"/>
+      <c r="F203" s="8"/>
+    </row>
+    <row r="204" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D204" s="8"/>
+      <c r="F204" s="8"/>
+    </row>
+    <row r="205" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D205" s="8"/>
+      <c r="F205" s="8"/>
+    </row>
+    <row r="206" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D206" s="8"/>
+      <c r="F206" s="8"/>
+    </row>
+    <row r="207" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D207" s="8"/>
+      <c r="F207" s="8"/>
+    </row>
+    <row r="208" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D208" s="8"/>
+      <c r="F208" s="8"/>
+    </row>
+    <row r="209" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D209" s="8"/>
+      <c r="F209" s="8"/>
+    </row>
+    <row r="210" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D210" s="8"/>
+      <c r="F210" s="8"/>
+    </row>
+    <row r="211" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D211" s="8"/>
+      <c r="F211" s="8"/>
+    </row>
+    <row r="212" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D212" s="8"/>
+      <c r="F212" s="8"/>
+    </row>
+    <row r="213" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D213" s="8"/>
+      <c r="F213" s="8"/>
+    </row>
+    <row r="214" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D214" s="8"/>
+      <c r="F214" s="8"/>
+    </row>
+    <row r="215" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D215" s="8"/>
+      <c r="F215" s="8"/>
+    </row>
+    <row r="216" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D216" s="8"/>
+      <c r="F216" s="8"/>
+    </row>
+    <row r="217" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D217" s="8"/>
+      <c r="F217" s="8"/>
+    </row>
+    <row r="218" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D218" s="8"/>
+      <c r="F218" s="8"/>
+    </row>
+    <row r="219" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D219" s="8"/>
+      <c r="F219" s="8"/>
+    </row>
+    <row r="220" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D220" s="8"/>
+      <c r="F220" s="8"/>
+    </row>
+    <row r="221" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D221" s="8"/>
+      <c r="F221" s="8"/>
+    </row>
+    <row r="222" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D222" s="8"/>
+      <c r="F222" s="8"/>
+    </row>
+    <row r="223" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D223" s="8"/>
+      <c r="F223" s="8"/>
+    </row>
+    <row r="224" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D224" s="8"/>
+      <c r="F224" s="8"/>
+    </row>
+    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D225" s="8"/>
+      <c r="F225" s="8"/>
+    </row>
+    <row r="226" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D226" s="8"/>
+      <c r="F226" s="8"/>
+    </row>
+    <row r="227" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D227" s="8"/>
+      <c r="F227" s="8"/>
+    </row>
+    <row r="228" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D228" s="8"/>
+      <c r="F228" s="8"/>
+    </row>
+    <row r="229" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D229" s="8"/>
+      <c r="F229" s="8"/>
+    </row>
+    <row r="230" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D230" s="8"/>
+      <c r="F230" s="8"/>
+    </row>
+    <row r="231" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D231" s="8"/>
+      <c r="F231" s="8"/>
+    </row>
+    <row r="232" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D232" s="8"/>
+      <c r="F232" s="8"/>
+    </row>
+    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D233" s="8"/>
+      <c r="F233" s="8"/>
+    </row>
+    <row r="234" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D234" s="8"/>
+      <c r="F234" s="8"/>
+    </row>
+    <row r="235" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D235" s="8"/>
+      <c r="F235" s="8"/>
+    </row>
+    <row r="236" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D236" s="8"/>
+      <c r="F236" s="8"/>
+    </row>
+    <row r="237" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D237" s="8"/>
+      <c r="F237" s="8"/>
+    </row>
+    <row r="238" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D238" s="8"/>
+      <c r="F238" s="8"/>
+    </row>
+    <row r="239" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D239" s="8"/>
+      <c r="F239" s="8"/>
+    </row>
+    <row r="240" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D240" s="8"/>
+      <c r="F240" s="8"/>
+    </row>
+    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D241" s="8"/>
+      <c r="F241" s="8"/>
+    </row>
+    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D242" s="8"/>
+      <c r="F242" s="8"/>
+    </row>
+    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D243" s="8"/>
+      <c r="F243" s="8"/>
+    </row>
+    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D244" s="8"/>
+      <c r="F244" s="8"/>
+    </row>
+    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D245" s="8"/>
+      <c r="F245" s="8"/>
+    </row>
+    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D246" s="8"/>
+      <c r="F246" s="8"/>
+    </row>
+    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D247" s="8"/>
+      <c r="F247" s="8"/>
+    </row>
+    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D248" s="8"/>
+      <c r="F248" s="8"/>
+    </row>
+    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D249" s="8"/>
+      <c r="F249" s="8"/>
+    </row>
+    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D250" s="8"/>
+      <c r="F250" s="8"/>
+    </row>
+    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D251" s="8"/>
+      <c r="F251" s="8"/>
+    </row>
+    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D252" s="8"/>
+      <c r="F252" s="8"/>
+    </row>
+    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D253" s="8"/>
+      <c r="F253" s="8"/>
+    </row>
+    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D254" s="8"/>
+      <c r="F254" s="8"/>
+    </row>
+    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D255" s="8"/>
+      <c r="F255" s="8"/>
+    </row>
+    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D256" s="8"/>
+      <c r="F256" s="8"/>
+    </row>
+    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D257" s="8"/>
+      <c r="F257" s="8"/>
+    </row>
+    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D258" s="8"/>
+      <c r="F258" s="8"/>
+    </row>
+    <row r="259" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D259" s="8"/>
+      <c r="F259" s="8"/>
+    </row>
+    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D260" s="8"/>
+      <c r="F260" s="8"/>
+    </row>
+    <row r="261" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D261" s="8"/>
+      <c r="F261" s="8"/>
+    </row>
+    <row r="262" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D262" s="8"/>
+      <c r="F262" s="8"/>
+    </row>
+    <row r="263" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D263" s="8"/>
+      <c r="F263" s="8"/>
+    </row>
+    <row r="264" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D264" s="8"/>
+      <c r="F264" s="8"/>
+    </row>
+    <row r="265" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D265" s="8"/>
+      <c r="F265" s="8"/>
+    </row>
+    <row r="266" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D266" s="8"/>
+      <c r="F266" s="8"/>
+    </row>
+    <row r="267" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D267" s="8"/>
+      <c r="F267" s="8"/>
+    </row>
+    <row r="268" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D268" s="8"/>
+      <c r="F268" s="8"/>
+    </row>
+    <row r="269" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D269" s="8"/>
+      <c r="F269" s="8"/>
+    </row>
+    <row r="270" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D270" s="8"/>
+      <c r="F270" s="8"/>
+    </row>
+    <row r="271" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D271" s="8"/>
+      <c r="F271" s="8"/>
+    </row>
+    <row r="272" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D272" s="8"/>
+      <c r="F272" s="8"/>
+    </row>
+    <row r="273" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D273" s="8"/>
+      <c r="F273" s="8"/>
+    </row>
+    <row r="274" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D274" s="8"/>
+      <c r="F274" s="8"/>
+    </row>
+    <row r="275" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D275" s="8"/>
+      <c r="F275" s="8"/>
+    </row>
+    <row r="276" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D276" s="8"/>
+      <c r="F276" s="8"/>
+    </row>
+    <row r="277" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D277" s="8"/>
+      <c r="F277" s="8"/>
+    </row>
+    <row r="278" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D278" s="8"/>
+      <c r="F278" s="8"/>
+    </row>
+    <row r="279" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D279" s="8"/>
+      <c r="F279" s="8"/>
+    </row>
+    <row r="280" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D280" s="8"/>
+      <c r="F280" s="8"/>
+    </row>
+    <row r="281" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D281" s="8"/>
+      <c r="F281" s="8"/>
+    </row>
+    <row r="282" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D282" s="8"/>
+      <c r="F282" s="8"/>
+    </row>
+    <row r="283" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D283" s="8"/>
+      <c r="F283" s="8"/>
+    </row>
+    <row r="284" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D284" s="8"/>
+      <c r="F284" s="8"/>
+    </row>
+    <row r="285" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D285" s="8"/>
+      <c r="F285" s="8"/>
+    </row>
+    <row r="286" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D286" s="8"/>
+      <c r="F286" s="8"/>
+    </row>
+    <row r="287" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D287" s="8"/>
+      <c r="F287" s="8"/>
+    </row>
+    <row r="288" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D288" s="8"/>
+      <c r="F288" s="8"/>
+    </row>
+    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D289" s="8"/>
+      <c r="F289" s="8"/>
+    </row>
+    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D290" s="8"/>
+      <c r="F290" s="8"/>
+    </row>
+    <row r="291" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D291" s="8"/>
+      <c r="F291" s="8"/>
+    </row>
+    <row r="292" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D292" s="8"/>
+      <c r="F292" s="8"/>
+    </row>
+    <row r="293" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D293" s="8"/>
+      <c r="F293" s="8"/>
+    </row>
+    <row r="294" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D294" s="8"/>
+      <c r="F294" s="8"/>
+    </row>
+    <row r="295" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D295" s="8"/>
+      <c r="F295" s="8"/>
+    </row>
+    <row r="296" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D296" s="8"/>
+      <c r="F296" s="8"/>
+    </row>
+    <row r="297" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D297" s="8"/>
+      <c r="F297" s="8"/>
+    </row>
+    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D298" s="8"/>
+      <c r="F298" s="8"/>
+    </row>
+    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D299" s="8"/>
+      <c r="F299" s="8"/>
+    </row>
+    <row r="300" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D300" s="8"/>
+      <c r="F300" s="8"/>
+    </row>
+    <row r="301" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D301" s="8"/>
+      <c r="F301" s="8"/>
+    </row>
+    <row r="302" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D302" s="8"/>
+      <c r="F302" s="8"/>
+    </row>
+    <row r="303" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D303" s="8"/>
+      <c r="F303" s="8"/>
+    </row>
+    <row r="304" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D304" s="8"/>
+      <c r="F304" s="8"/>
+    </row>
+    <row r="305" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D305" s="8"/>
+      <c r="F305" s="8"/>
+    </row>
+    <row r="306" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D306" s="8"/>
+      <c r="F306" s="8"/>
+    </row>
+    <row r="307" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D307" s="8"/>
+      <c r="F307" s="8"/>
+    </row>
+    <row r="308" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D308" s="8"/>
+      <c r="F308" s="8"/>
+    </row>
+    <row r="309" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D309" s="8"/>
+      <c r="F309" s="8"/>
+    </row>
+    <row r="310" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D310" s="8"/>
+      <c r="F310" s="8"/>
+    </row>
+    <row r="311" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D311" s="8"/>
+      <c r="F311" s="8"/>
+    </row>
+    <row r="312" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D312" s="8"/>
+      <c r="F312" s="8"/>
+    </row>
+    <row r="313" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D313" s="8"/>
+      <c r="F313" s="8"/>
+    </row>
+    <row r="314" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D314" s="8"/>
+      <c r="F314" s="8"/>
+    </row>
+    <row r="315" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D315" s="8"/>
+      <c r="F315" s="8"/>
+    </row>
+    <row r="316" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D316" s="8"/>
+      <c r="F316" s="8"/>
+    </row>
+    <row r="317" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D317" s="8"/>
+      <c r="F317" s="8"/>
+    </row>
+    <row r="318" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D318" s="8"/>
+      <c r="F318" s="8"/>
+    </row>
+    <row r="319" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D319" s="8"/>
+      <c r="F319" s="8"/>
+    </row>
+    <row r="320" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D320" s="8"/>
+      <c r="F320" s="8"/>
+    </row>
+    <row r="321" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D321" s="8"/>
+      <c r="F321" s="8"/>
+    </row>
+    <row r="322" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D322" s="8"/>
+      <c r="F322" s="8"/>
+    </row>
+    <row r="323" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D323" s="8"/>
+      <c r="F323" s="8"/>
+    </row>
+    <row r="324" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D324" s="8"/>
+      <c r="F324" s="8"/>
+    </row>
+    <row r="325" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D325" s="8"/>
+      <c r="F325" s="8"/>
+    </row>
+    <row r="326" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D326" s="8"/>
+      <c r="F326" s="8"/>
+    </row>
+    <row r="327" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D327" s="8"/>
+      <c r="F327" s="8"/>
+    </row>
+    <row r="328" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D328" s="8"/>
+      <c r="F328" s="8"/>
+    </row>
+    <row r="329" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D329" s="8"/>
+      <c r="F329" s="8"/>
+    </row>
+    <row r="330" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D330" s="8"/>
+      <c r="F330" s="8"/>
+    </row>
+    <row r="331" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D331" s="8"/>
+      <c r="F331" s="8"/>
+    </row>
+    <row r="332" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D332" s="8"/>
+      <c r="F332" s="8"/>
+    </row>
+    <row r="333" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D333" s="8"/>
+      <c r="F333" s="8"/>
+    </row>
+    <row r="334" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D334" s="8"/>
+      <c r="F334" s="8"/>
+    </row>
+    <row r="335" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D335" s="8"/>
+      <c r="F335" s="8"/>
+    </row>
+    <row r="336" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D336" s="8"/>
+      <c r="F336" s="8"/>
+    </row>
+    <row r="337" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D337" s="8"/>
+      <c r="F337" s="8"/>
+    </row>
+    <row r="338" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D338" s="8"/>
+      <c r="F338" s="8"/>
+    </row>
+    <row r="339" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D339" s="8"/>
+      <c r="F339" s="8"/>
+    </row>
+    <row r="340" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D340" s="8"/>
+      <c r="F340" s="8"/>
+    </row>
+    <row r="341" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D341" s="8"/>
+      <c r="F341" s="8"/>
+    </row>
+    <row r="342" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D342" s="8"/>
+      <c r="F342" s="8"/>
+    </row>
+    <row r="343" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D343" s="8"/>
+      <c r="F343" s="8"/>
+    </row>
+    <row r="344" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D344" s="8"/>
+      <c r="F344" s="8"/>
+    </row>
+    <row r="345" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D345" s="8"/>
+      <c r="F345" s="8"/>
+    </row>
+    <row r="346" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D346" s="8"/>
+      <c r="F346" s="8"/>
+    </row>
+    <row r="347" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D347" s="8"/>
+      <c r="F347" s="8"/>
+    </row>
+    <row r="348" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D348" s="8"/>
+      <c r="F348" s="8"/>
+    </row>
+    <row r="349" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D349" s="8"/>
+      <c r="F349" s="8"/>
+    </row>
+    <row r="350" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D350" s="8"/>
+      <c r="F350" s="8"/>
+    </row>
+    <row r="351" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D351" s="8"/>
+      <c r="F351" s="8"/>
+    </row>
+    <row r="352" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D352" s="8"/>
+      <c r="F352" s="8"/>
+    </row>
+    <row r="353" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D353" s="8"/>
+      <c r="F353" s="8"/>
+    </row>
+    <row r="354" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D354" s="8"/>
+      <c r="F354" s="8"/>
+    </row>
+    <row r="355" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F355" s="8"/>
+    </row>
+    <row r="356" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F356" s="8"/>
+    </row>
+    <row r="357" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F357" s="8"/>
+    </row>
+    <row r="358" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F358" s="8"/>
+    </row>
+    <row r="359" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F359" s="8"/>
+    </row>
+    <row r="360" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F360" s="8"/>
+    </row>
+    <row r="361" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F361" s="8"/>
+    </row>
+    <row r="362" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F362" s="8"/>
+    </row>
+    <row r="363" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F363" s="8"/>
+    </row>
+    <row r="364" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F364" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
